--- a/fgt-tables/fgt_raca_sm.xlsx
+++ b/fgt-tables/fgt_raca_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.05128587802814934</v>
+        <v>0.04856815005294025</v>
       </c>
       <c r="C2">
-        <v>0.005119823234524807</v>
+        <v>0.00670943022877594</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0470558503460889</v>
+        <v>0.04041380344049289</v>
       </c>
       <c r="C3">
-        <v>0.0008804429274932424</v>
+        <v>0.0009189705784143857</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.142005184219724</v>
+        <v>0.1031532087561053</v>
       </c>
       <c r="C4">
-        <v>0.01155046189122609</v>
+        <v>0.01055978047917941</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.09997876135211947</v>
+        <v>0.09081307540638102</v>
       </c>
       <c r="C5">
-        <v>0.002442713097268172</v>
+        <v>0.00249664836933218</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1164588069176658</v>
+        <v>0.09873286292462449</v>
       </c>
       <c r="C6">
-        <v>0.001425308800121237</v>
+        <v>0.001227074577470893</v>
       </c>
     </row>
   </sheetData>
